--- a/New Unity Project/DataVisualizationPlugin/DataVisualizationPlugin/bin/Debug/DataVisualizationPlugin.xlsx
+++ b/New Unity Project/DataVisualizationPlugin/DataVisualizationPlugin/bin/Debug/DataVisualizationPlugin.xlsx
@@ -391,7 +391,7 @@
 </file>
 
 <file path=vstoDataStore/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F493A6E-39F1-4289-BBB6-313B0B47476B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCF3A102-2F55-4C3D-95E7-EE3A901A3C9E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>